--- a/JavaApplication1/OrdonnanceDetails.xlsx
+++ b/JavaApplication1/OrdonnanceDetails.xlsx
@@ -12,15 +12,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>contenu_ord</t>
   </si>
   <si>
     <t>date_ord</t>
-  </si>
-  <si>
-    <t>liste_medicament</t>
   </si>
   <si>
     <t>testttt</t>
@@ -29,16 +26,10 @@
     <t>2021-03-30</t>
   </si>
   <si>
-    <t xml:space="preserve">Doliprane 2 Augmentin </t>
-  </si>
-  <si>
     <t>test44</t>
   </si>
   <si>
     <t>2022-04-03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Efferalgan Panadol </t>
   </si>
   <si>
     <t>testmedd</t>
@@ -47,10 +38,13 @@
     <t>2021-04-06</t>
   </si>
   <si>
-    <t xml:space="preserve">Efferalgan </t>
+    <t>test val2</t>
   </si>
   <si>
-    <t>test val2</t>
+    <t>update test</t>
+  </si>
+  <si>
+    <t>2021-04-21</t>
   </si>
 </sst>
 </file>
@@ -95,7 +89,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -108,52 +102,45 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2">
       <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" t="s">
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="E2" t="s">
+      <c r="B3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3">
-      <c r="B3" t="s">
+    <row r="4">
+      <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="D3" t="s">
+      <c r="B4" t="s">
         <v>7</v>
-      </c>
-      <c r="E3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="5">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
-      <c r="D5" t="s">
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
         <v>10</v>
-      </c>
-      <c r="E5" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/JavaApplication1/OrdonnanceDetails.xlsx
+++ b/JavaApplication1/OrdonnanceDetails.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>contenu_ord</t>
   </si>
@@ -41,10 +41,25 @@
     <t>test val2</t>
   </si>
   <si>
+    <t>2021-04-05</t>
+  </si>
+  <si>
     <t>update test</t>
   </si>
   <si>
     <t>2021-04-21</t>
+  </si>
+  <si>
+    <t>ord</t>
+  </si>
+  <si>
+    <t>2021-04-25</t>
+  </si>
+  <si>
+    <t>aaaaabbb</t>
+  </si>
+  <si>
+    <t>2021-04-24</t>
   </si>
 </sst>
 </file>
@@ -89,7 +104,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -132,15 +147,31 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
